--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Modo</t>
   </si>
@@ -89,7 +89,10 @@
     <t>73_148_ES</t>
   </si>
   <si>
-    <t>08_00_AM</t>
+    <t/>
+  </si>
+  <si>
+    <t>tolls</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -161,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +180,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -490,11 +496,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="22.005" customWidth="1" bestFit="1"/>
@@ -541,7 +547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -568,10 +574,12 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -77,6 +77,9 @@
     <t>Aux_time_str</t>
   </si>
   <si>
+    <t>Timezone</t>
+  </si>
+  <si>
     <t>Parameter_avoid</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>73_148_ES</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>tolls</t>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,9 +180,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -489,24 +486,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="22.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -543,13 +541,16 @@
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>19.556278</v>
@@ -569,15 +570,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Modo</t>
   </si>
@@ -83,16 +83,22 @@
     <t>Parameter_avoid</t>
   </si>
   <si>
-    <t>73_148_ES_08_00_AM</t>
+    <t>test_1</t>
+  </si>
+  <si>
+    <t>2da B Juárez 102, Los Jales, Ex Hacienda de Coscotitlán, 42064 Pachuca de Soto, Hgo., Mexico</t>
+  </si>
+  <si>
+    <t>Calz. de Tlalpan 3465, Sta. Úrsula Coapa, Coyoacán, 04650 Ciudad de México, CDMX, Mexico</t>
   </si>
   <si>
     <t>2023-10-10 at 08:00 AM</t>
   </si>
   <si>
-    <t>73_148_ES</t>
-  </si>
-  <si>
-    <t>tolls</t>
+    <t>test_viaje_1</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +186,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,11 +502,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="22.005" customWidth="1" bestFit="1"/>
@@ -552,33 +561,29 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5">
-        <v>19.556278</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-98.896696</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5">
-        <v>19.674144</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-98.958027</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Modo</t>
   </si>
@@ -86,19 +86,49 @@
     <t>test_1</t>
   </si>
   <si>
+    <t>2023-10-10 at 08:00 AM</t>
+  </si>
+  <si>
+    <t>test_viaje_2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
     <t>2da B Juárez 102, Los Jales, Ex Hacienda de Coscotitlán, 42064 Pachuca de Soto, Hgo., Mexico</t>
   </si>
   <si>
     <t>Calz. de Tlalpan 3465, Sta. Úrsula Coapa, Coyoacán, 04650 Ciudad de México, CDMX, Mexico</t>
   </si>
   <si>
-    <t>2023-10-10 at 08:00 AM</t>
+    <t>test_viaje3</t>
+  </si>
+  <si>
+    <t>test_3</t>
+  </si>
+  <si>
+    <t>2023-10-10 at 08:00 PM</t>
+  </si>
+  <si>
+    <t>test_viaje4</t>
+  </si>
+  <si>
+    <t>America/Mexico_City</t>
+  </si>
+  <si>
+    <t>tolls</t>
+  </si>
+  <si>
+    <t>test_4</t>
   </si>
   <si>
     <t>test_viaje_1</t>
   </si>
   <si>
-    <t/>
+    <t>America/Santiago</t>
   </si>
 </sst>
 </file>
@@ -106,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +148,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +225,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -495,18 +534,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="22.005" customWidth="1" bestFit="1"/>
@@ -557,34 +596,129 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="5">
+        <v>19.336025</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-99.136536</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5">
+        <v>18.865893</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-99.192482</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5">
+        <v>18.865893</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-99.192482</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Modo</t>
   </si>
@@ -89,13 +89,22 @@
     <t>2023-10-10 at 08:00 AM</t>
   </si>
   <si>
+    <t>test_viaje_1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tolls</t>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
     <t>test_viaje_2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>test_2</t>
+    <t>test_3</t>
   </si>
   <si>
     <t>2da B Juárez 102, Los Jales, Ex Hacienda de Coscotitlán, 42064 Pachuca de Soto, Hgo., Mexico</t>
@@ -104,31 +113,19 @@
     <t>Calz. de Tlalpan 3465, Sta. Úrsula Coapa, Coyoacán, 04650 Ciudad de México, CDMX, Mexico</t>
   </si>
   <si>
-    <t>test_viaje3</t>
-  </si>
-  <si>
-    <t>test_3</t>
-  </si>
-  <si>
     <t>2023-10-10 at 08:00 PM</t>
   </si>
   <si>
-    <t>test_viaje4</t>
-  </si>
-  <si>
-    <t>America/Mexico_City</t>
-  </si>
-  <si>
-    <t>tolls</t>
+    <t>test_viaje_3</t>
+  </si>
+  <si>
+    <t>America/Santiago</t>
   </si>
   <si>
     <t>test_4</t>
   </si>
   <si>
-    <t>test_viaje_1</t>
-  </si>
-  <si>
-    <t>America/Santiago</t>
+    <t>test_viaje_4</t>
   </si>
 </sst>
 </file>
@@ -627,21 +624,31 @@
       <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
+      <c r="B3" s="5">
+        <v>19.336025</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-99.136536</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>18.865893</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-99.192482</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -650,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="6" t="s">
@@ -660,35 +667,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5">
-        <v>18.865893</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-99.192482</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -698,12 +703,12 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -716,7 +721,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2"/>
     </row>

--- a/resources/request.xlsx
+++ b/resources/request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Modo</t>
   </si>
@@ -92,9 +92,6 @@
     <t>test_viaje_1</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>tolls</t>
   </si>
   <si>
@@ -120,6 +117,21 @@
   </si>
   <si>
     <t>America/Santiago</t>
+  </si>
+  <si>
+    <t>44_69_ES_10_00_AM</t>
+  </si>
+  <si>
+    <t>C. Constituyentes 15, Tlaltepan, 54870 Cuautitlán, Méx., Mexico</t>
+  </si>
+  <si>
+    <t>2023-10-18 at 10:00 AM</t>
+  </si>
+  <si>
+    <t>America/Mexico_City</t>
+  </si>
+  <si>
+    <t>49_69_ES_10_00_AM</t>
   </si>
   <si>
     <t>test_4</t>
@@ -133,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,12 +157,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,10 +226,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -531,18 +534,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="22.005" customWidth="1" bestFit="1"/>
@@ -593,7 +596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -621,16 +624,14 @@
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>19.336025</v>
@@ -638,18 +639,14 @@
       <c r="C3" s="5">
         <v>-99.136536</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="5">
         <v>18.865893</v>
       </c>
       <c r="F3" s="5">
         <v>-99.192482</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
@@ -657,73 +654,141 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-99.12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E5" s="6">
+        <v>19.68</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-99.16</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6">
+        <v>19.43</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-99.15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
+        <v>19.68</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-99.16</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
